--- a/java-apache-poi-merge-excell-cell/info.xlsx
+++ b/java-apache-poi-merge-excell-cell/info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github-Projects\apache-poi-excel\java-apache-poi-merge-excell-cell\"/>
     </mc:Choice>
@@ -70,6 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,10 +448,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.6640625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,6 +540,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
